--- a/Dados macros/PIB_brasil_freq.xlsx
+++ b/Dados macros/PIB_brasil_freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Dados macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECAFD3C-1130-4EC9-BC8D-B02B97071630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E2B364-AA15-4F82-A6FD-B60875F74E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C845D09-0E83-4BD7-9307-093BE36B9D5F}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{3C845D09-0E83-4BD7-9307-093BE36B9D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dados macros/PIB_brasil_freq.xlsx
+++ b/Dados macros/PIB_brasil_freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Dados macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E2B364-AA15-4F82-A6FD-B60875F74E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BE34CE-6DE8-4A1F-84D6-9BF8FE637E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{3C845D09-0E83-4BD7-9307-093BE36B9D5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C845D09-0E83-4BD7-9307-093BE36B9D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ano</t>
   </si>
   <si>
     <t>PIB REAL BRASIL</t>
   </si>
+  <si>
+    <t>valor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +78,307 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -91,23 +386,237 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="45">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma 2" xfId="43" xr:uid="{EE33C92C-AE9B-4103-A2E3-4F00FD86E537}"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="44" xr:uid="{C0FB7851-C743-4C00-A2B9-BDBE961B8456}"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,12 +931,12 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -437,195 +946,260 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="4">
+        <v>5051887525656.0303</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3" s="4">
-        <v>1.3898964044580797E-2</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3">
+        <f>(LN(C3)/LN(C2)) -1</f>
+        <v>4.7189366506872332E-4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5122103528732.3896</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4" s="4">
-        <v>3.0534618568363259E-2</v>
-      </c>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B22" si="0">(LN(C4)/LN(C3)) -1</f>
+        <v>1.027785406295223E-3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5278505006249.9004</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5" s="4">
-        <v>1.1408289987708375E-2</v>
-      </c>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8722772738752909E-4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5338723722062.7695</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" s="4">
-        <v>5.7599646368601709E-2</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9109343123859812E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5646232320513.25</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7" s="4">
-        <v>3.2021313797365281E-2</v>
-      </c>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0734728374430791E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5827032097421.2305</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" s="4">
-        <v>3.9619887233663942E-2</v>
-      </c>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3218948094178007E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6057898452028</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9" s="4">
-        <v>6.0698706071714348E-2</v>
-      </c>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.002143201019102E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6425605049579.9404</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="4">
-        <v>5.0941954472200068E-2</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6847965821047417E-3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6752937929471.9805</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11" s="4">
-        <v>-1.2581199960348677E-3</v>
-      </c>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.2615759305419942E-5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6744441923230.9297</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12" s="4">
-        <v>7.5282258303846161E-2</v>
-      </c>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.457137175760904E-3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7252178742210.8896</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2011</v>
       </c>
-      <c r="B13" s="4">
-        <v>3.9744230794468871E-2</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3161666143248762E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7540411007904.0596</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14" s="4">
-        <v>1.9211759850946919E-2</v>
-      </c>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>6.4177778013241316E-4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7685275573365.3496</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2013</v>
       </c>
-      <c r="B15" s="4">
-        <v>3.004822670288676E-2</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9781922986386107E-4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7916204476067.9902</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2014</v>
       </c>
-      <c r="B16" s="4">
-        <v>5.0395574027322088E-3</v>
-      </c>
-      <c r="C16" s="3"/>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6925631921638207E-4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7956098642936.9004</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2015</v>
       </c>
-      <c r="B17" s="4">
-        <v>-3.5457633934729005E-2</v>
-      </c>
-      <c r="C17" s="3"/>
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.2153365072660183E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7673994209707.0498</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2016</v>
       </c>
-      <c r="B18" s="4">
-        <v>-3.2759169063210192E-2</v>
-      </c>
-      <c r="C18" s="3"/>
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.1226507123162088E-3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7422600536001.1602</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B19" s="4">
-        <v>1.3228690539081489E-2</v>
-      </c>
-      <c r="C19" s="3"/>
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>4.4345238207110782E-4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7520791821487.1396</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B20" s="4">
-        <v>1.7836667613697399E-2</v>
-      </c>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>5.9629816196204999E-4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7654937685398.8203</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2019</v>
       </c>
-      <c r="B21" s="4">
-        <v>1.4111529850700855E-2</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7234926836292601E-4</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7762960567051.5801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2020</v>
       </c>
-      <c r="B22" s="4">
-        <v>-4.0590482726728272E-2</v>
-      </c>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.3961163268397803E-3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7447858250246.4004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dados macros/PIB_brasil_freq.xlsx
+++ b/Dados macros/PIB_brasil_freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Dados macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BE34CE-6DE8-4A1F-84D6-9BF8FE637E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A84E35A-48E2-4BDE-91EB-05D48E9ABE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C845D09-0E83-4BD7-9307-093BE36B9D5F}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{3C845D09-0E83-4BD7-9307-093BE36B9D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>PIB REAL BRASIL</t>
+    <t>valor</t>
   </si>
   <si>
-    <t>valor</t>
+    <t>PIB real Brasil</t>
   </si>
 </sst>
 </file>
@@ -52,8 +52,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -558,7 +558,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
@@ -931,7 +931,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
